--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Agt</t>
+  </si>
+  <si>
+    <t>Agtr1a</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Agt</t>
-  </si>
-  <si>
-    <t>Agtr1a</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.206928</v>
+        <v>1.551523333333333</v>
       </c>
       <c r="H2">
-        <v>0.620784</v>
+        <v>4.65457</v>
       </c>
       <c r="I2">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="J2">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.212188333333334</v>
+        <v>1.137783333333333</v>
       </c>
       <c r="N2">
-        <v>6.636565000000001</v>
+        <v>3.41335</v>
       </c>
       <c r="O2">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="P2">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="Q2">
-        <v>0.4577637074400001</v>
+        <v>1.765297389944444</v>
       </c>
       <c r="R2">
-        <v>4.11987336696</v>
+        <v>15.8876765095</v>
       </c>
       <c r="S2">
-        <v>0.007681161831216643</v>
+        <v>0.02417710722954768</v>
       </c>
       <c r="T2">
-        <v>0.007681161831216643</v>
+        <v>0.02417710722954768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.206928</v>
+        <v>1.551523333333333</v>
       </c>
       <c r="H3">
-        <v>0.620784</v>
+        <v>4.65457</v>
       </c>
       <c r="I3">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="J3">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>46.344539</v>
       </c>
       <c r="O3">
-        <v>0.4673090969404124</v>
+        <v>0.3452795715412271</v>
       </c>
       <c r="P3">
-        <v>0.4673090969404123</v>
+        <v>0.345279571541227</v>
       </c>
       <c r="Q3">
-        <v>3.196660922064</v>
+        <v>23.96821121035888</v>
       </c>
       <c r="R3">
-        <v>28.769948298576</v>
+        <v>215.71390089323</v>
       </c>
       <c r="S3">
-        <v>0.05363917991493056</v>
+        <v>0.328263110699739</v>
       </c>
       <c r="T3">
-        <v>0.05363917991493054</v>
+        <v>0.328263110699739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.206928</v>
+        <v>1.551523333333333</v>
       </c>
       <c r="H4">
-        <v>0.620784</v>
+        <v>4.65457</v>
       </c>
       <c r="I4">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="J4">
-        <v>0.1147830852558177</v>
+        <v>0.950716861801202</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.39736566666667</v>
+        <v>28.15511333333333</v>
       </c>
       <c r="N4">
-        <v>46.192097</v>
+        <v>84.46534</v>
       </c>
       <c r="O4">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="P4">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="Q4">
-        <v>3.186146082672</v>
+        <v>43.6833152893111</v>
       </c>
       <c r="R4">
-        <v>28.675314744048</v>
+        <v>393.1498376037999</v>
       </c>
       <c r="S4">
-        <v>0.05346274350967056</v>
+        <v>0.5982766438719153</v>
       </c>
       <c r="T4">
-        <v>0.05346274350967056</v>
+        <v>0.5982766438719153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.551523333333333</v>
+        <v>0.08042766666666666</v>
       </c>
       <c r="H5">
-        <v>4.65457</v>
+        <v>0.241283</v>
       </c>
       <c r="I5">
-        <v>0.8606309201576903</v>
+        <v>0.04928313819879805</v>
       </c>
       <c r="J5">
-        <v>0.8606309201576902</v>
+        <v>0.04928313819879804</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.212188333333334</v>
+        <v>1.137783333333333</v>
       </c>
       <c r="N5">
-        <v>6.636565000000001</v>
+        <v>3.41335</v>
       </c>
       <c r="O5">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="P5">
-        <v>0.06691893508610255</v>
+        <v>0.02543039699931523</v>
       </c>
       <c r="Q5">
-        <v>3.432261816894445</v>
+        <v>0.09150925867222222</v>
       </c>
       <c r="R5">
-        <v>30.89035635205</v>
+        <v>0.8235833280500001</v>
       </c>
       <c r="S5">
-        <v>0.05759250467912518</v>
+        <v>0.001253289769767551</v>
       </c>
       <c r="T5">
-        <v>0.05759250467912518</v>
+        <v>0.001253289769767551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.551523333333333</v>
+        <v>0.08042766666666666</v>
       </c>
       <c r="H6">
-        <v>4.65457</v>
+        <v>0.241283</v>
       </c>
       <c r="I6">
-        <v>0.8606309201576903</v>
+        <v>0.04928313819879805</v>
       </c>
       <c r="J6">
-        <v>0.8606309201576902</v>
+        <v>0.04928313819879804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>46.344539</v>
       </c>
       <c r="O6">
-        <v>0.4673090969404124</v>
+        <v>0.3452795715412271</v>
       </c>
       <c r="P6">
-        <v>0.4673090969404123</v>
+        <v>0.345279571541227</v>
       </c>
       <c r="Q6">
-        <v>23.96821121035888</v>
+        <v>1.242461044837444</v>
       </c>
       <c r="R6">
-        <v>215.71390089323</v>
+        <v>11.182149403537</v>
       </c>
       <c r="S6">
-        <v>0.4021806580978864</v>
+        <v>0.01701646084148807</v>
       </c>
       <c r="T6">
-        <v>0.4021806580978863</v>
+        <v>0.01701646084148807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.551523333333333</v>
+        <v>0.08042766666666666</v>
       </c>
       <c r="H7">
-        <v>4.65457</v>
+        <v>0.241283</v>
       </c>
       <c r="I7">
-        <v>0.8606309201576903</v>
+        <v>0.04928313819879805</v>
       </c>
       <c r="J7">
-        <v>0.8606309201576902</v>
+        <v>0.04928313819879804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.39736566666667</v>
+        <v>28.15511333333333</v>
       </c>
       <c r="N7">
-        <v>46.192097</v>
+        <v>84.46534</v>
       </c>
       <c r="O7">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="P7">
-        <v>0.4657719679734851</v>
+        <v>0.6292900314594577</v>
       </c>
       <c r="Q7">
-        <v>23.88937210369889</v>
+        <v>2.264450070135555</v>
       </c>
       <c r="R7">
-        <v>215.00434893329</v>
+        <v>20.38005063122</v>
       </c>
       <c r="S7">
-        <v>0.4008577573806787</v>
+        <v>0.03101338758754243</v>
       </c>
       <c r="T7">
-        <v>0.4008577573806787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.044323</v>
-      </c>
-      <c r="H8">
-        <v>0.132969</v>
-      </c>
-      <c r="I8">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="J8">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>2.212188333333334</v>
-      </c>
-      <c r="N8">
-        <v>6.636565000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.06691893508610255</v>
-      </c>
-      <c r="P8">
-        <v>0.06691893508610255</v>
-      </c>
-      <c r="Q8">
-        <v>0.09805082349833336</v>
-      </c>
-      <c r="R8">
-        <v>0.8824574114850001</v>
-      </c>
-      <c r="S8">
-        <v>0.001645268575760725</v>
-      </c>
-      <c r="T8">
-        <v>0.001645268575760725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.044323</v>
-      </c>
-      <c r="H9">
-        <v>0.132969</v>
-      </c>
-      <c r="I9">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="J9">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>15.44817966666667</v>
-      </c>
-      <c r="N9">
-        <v>46.344539</v>
-      </c>
-      <c r="O9">
-        <v>0.4673090969404124</v>
-      </c>
-      <c r="P9">
-        <v>0.4673090969404123</v>
-      </c>
-      <c r="Q9">
-        <v>0.6847096673656666</v>
-      </c>
-      <c r="R9">
-        <v>6.162387006291</v>
-      </c>
-      <c r="S9">
-        <v>0.01148925892759543</v>
-      </c>
-      <c r="T9">
-        <v>0.01148925892759543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.044323</v>
-      </c>
-      <c r="H10">
-        <v>0.132969</v>
-      </c>
-      <c r="I10">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="J10">
-        <v>0.02458599458649197</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>15.39736566666667</v>
-      </c>
-      <c r="N10">
-        <v>46.192097</v>
-      </c>
-      <c r="O10">
-        <v>0.4657719679734851</v>
-      </c>
-      <c r="P10">
-        <v>0.4657719679734851</v>
-      </c>
-      <c r="Q10">
-        <v>0.6824574384436667</v>
-      </c>
-      <c r="R10">
-        <v>6.142116945993001</v>
-      </c>
-      <c r="S10">
-        <v>0.01145146708313582</v>
-      </c>
-      <c r="T10">
-        <v>0.01145146708313582</v>
+        <v>0.03101338758754242</v>
       </c>
     </row>
   </sheetData>
